--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.pt.xlsx
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Há limites na estrutura da política, incluindo números de regras e grupos de coleta de regras, tamanho total da política, destinos de origem/destino. Certifique-se de redigir sua política e ficar atrás dos limites documentados.</t>
+          <t>Há limites na estrutura da política, incluindo números de regras e grupos de coleta de regras, tamanho total da política, destinos de origem/destino. Certifique-se de redigir sua política e ficar abaixo dos limites documentados.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Em uma arquitetura Hub e Spokes tradicional, configure UDRs para forçar o tráfego por meio do Firewall do Azure para conectividade 'SpoketoSpoke', 'SpoketoInternet' e 'SpoketoHybrid'. Na WAN Virtual do Azure, em vez disso, configure a Intenção de Roteamento e as Políticas para redirecionar o tráfego privado e/ou da Internet por meio da instância do Firewall do Azure integrada ao hub.</t>
+          <t>Em uma arquitetura tradicional de Hub e Spokes, configure UDRs para forçar o tráfego por meio do Firewall do Azure para conectividade 'Spoke-to-Spoke', 'Spoke-to-Internet' e 'Spoke-to-Hybrid'. Na WAN Virtual do Azure, em vez disso, configure a Intenção de Roteamento e as Políticas para redirecionar o tráfego privado e/ou da Internet por meio da instância do Firewall do Azure integrada ao hub.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Se o Firewall do Azure precisar operar no modo IDPS Alertar e negar, considere cuidadosamente o impacto no desempenho, conforme documentado nesta página.</t>
+          <t>Se o Firewall do Azure for necessário para operar no modo IDPS Alertar e negar, considere cuidadosamente o impacto no desempenho, conforme documentado no desempenho do firewall.</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>

--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.pt.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall do Azure com topologias de rede tradicionais de Hub &amp; Spokes ou WAN Virtual do Azure para implantar e gerenciar instâncias do Firewall do Azure.</t>
+          <t>Implante o Firewall do Azure em várias zonas de disponibilidade.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Crie facilmente arquiteturas hub-and-spoke e transitivas com serviços de segurança nativos para governança e proteção de tráfego.  Para obter mais informações sobre topologias de rede, consulte a documentação do Azure Cloud Adoption Framework.</t>
+          <t>Implante o Firewall do Azure em várias zonas de disponibilidade para manter um nível específico de resiliência. Se uma zona sofrer uma interrupção, outra zona continuará a atender ao tráfego.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1082,7 +1082,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>833670b0-5f05-4810-96be-dd79df30775d</t>
+          <t>881f08f8-32f0-420d-b4f7-f0660a0402cb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Crie políticas de firewall do Azure para controlar a postura de segurança em ambientes de rede globais. Atribua políticas a todas as instâncias do Firewall do Azure.</t>
+          <t>Monitore as métricas do Firewall do Azure em um workspace do Log Analytics. Monitore de perto as métricas que indicam o estado de integridade do Firewall do Azure, como taxa de transferência, estado de integridade do firewall, utilização da porta SNAT e métricas de investigação de latência AZFW.  Use a Integridade do Serviço do Azure para monitorar a integridade do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>As Políticas de Firewall do Azure podem ser organizadas em uma estrutura hierárquica para sobrepor uma política de base central. Permita políticas granulares para atender aos requisitos de regiões específicas. Delegue políticas de firewall incrementais às equipes de segurança locais por meio do RBAC (controle de acesso baseado em função). Algumas configurações são específicas por instância, por exemplo, regras DNAT e configuração de DNS, então várias políticas especializadas podem ser necessárias.</t>
+          <t>Monitore as métricas de recursos e a integridade do serviço para que você possa detectar quando um estado de serviço é degradado e tomar medidas proativas para evitar falhas.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>5b0404e7-a3be-4103-aff9-903f9fe447d2</t>
+          <t>a61daca7-ba87-4a5f-8d72-6c4e61f1f8a1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Migre as Regras Clássicas do Firewall do Azure para as Políticas do Gerenciador de Firewall do Azure para implantações existentes.</t>
+          <t>Configure o Firewall do Azure no modo de túnel forçado se precisar rotear todo o tráfego vinculado à Internet para um próximo salto designado em vez de diretamente para a Internet. Essa recomendação não se aplica à WAN Virtual. &lt;BR&gt;&lt;BR&gt; O Firewall do Azure deve ter conectividade direta com a Internet. Se o AzureFirewallSubnet aprender uma rota padrão para sua rede local por meio do Protocolo de Gateway de Borda, você deverá configurar o Firewall do Azure no modo de túnel forçado. Você pode usar o recurso de túnel forçado para adicionar outro espaço de endereço /26 para a sub-rede de Gerenciamento do Firewall do Azure. Nomeie a sub-rede AzureFirewallManagementSubnet. Se você tiver uma instância existente do Firewall do Azure que não pode ser reconfigurada no modo de túnel forçado, crie uma UDR com uma rota 0.0.0.0/0. Defina o valor NextHopType como Internet. Para manter a conectividade com a Internet, associe a UDR a AzureFirewallSubnet.  Defina o endereço IP público como Nenhum para implantar um plano de dados totalmente privado ao configurar o Firewall do Azure no modo de túnel forçado. Mas o plano de gerenciamento ainda requer um IP público apenas para fins de gerenciamento. O tráfego interno de redes virtuais e locais não usa esse IP público.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Para implantações existentes, migre as regras do Firewall do Azure para as políticas do Gerenciador de Firewall do Azure. Use o Gerenciador de Firewall do Azure para gerenciar centralmente seus firewalls e políticas.  Para obter mais informações, consulte Migrar para o Firewall do Azure Premium.</t>
+          <t>Use o túnel forçado para não expor seus recursos do Azure diretamente à Internet. Essa abordagem reduz a superfície de ataque e minimiza o risco de ameaças externas. Para impor políticas corporativas e requisitos de conformidade com mais eficiência, roteie todo o tráfego vinculado à Internet por meio de um firewall local ou de uma NVA.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>182b6ed7-94f3-434c-be79-ce6a93d6560c</t>
+          <t>11c69324-ff8f-48aa-9e9e-9c954e29a121</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Examine a lista de Problemas Conhecidos do Firewall do Azure.</t>
+          <t>Crie regras para políticas de firewall em uma estrutura hierárquica para sobrepor uma política de base central. Para obter mais informações, consulte Usar políticas de Firewall do Azure para processar regras. &lt;BR&gt;&lt;BR&gt; Crie suas regras com base no princípio Zero Trust de acesso com privilégios mínimos</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>O Grupo de Produtos do Firewall do Azure mantém uma lista atualizada de problemas conhecidos neste local. Esta lista contém informações importantes relacionadas ao comportamento por design, correções em construção, limitações da plataforma, juntamente com possíveis soluções alternativas ou mitigação.</t>
+          <t>Organize as regras em uma estrutura hierárquica para que as políticas granulares possam atender aos requisitos de regiões específicas. Cada política pode conter diferentes conjuntos de regras de DNAT (Destination Network Address Translation), rede e aplicativo que têm prioridades, ações e ordens de processamento específicas.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>d34dc09b-f98f-47d4-92b7-79f77b9a755d</t>
+          <t>29a3b176-03b3-4273-b9f8-cdddee154009</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a Política de Firewall do Azure está de acordo com os limites e recomendações do Firewall do Azure.</t>
+          <t>Configure provedores de parceiros de segurança compatíveis no Firewall Manager para proteger as conexões de saída. &lt;BR&gt;&lt;BR&gt; Esse cenário requer a WAN Virtual com um gateway de VPN S2S no hub porque ele usa um túnel IPsec para se conectar à infraestrutura do provedor. Os provedores de serviços de segurança gerenciados podem cobrar taxas de licença extras e limitar a taxa de transferência em conexões IPsec. Você também pode usar soluções alternativas, como o Zscaler Cloud Connector.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Há limites na estrutura da política, incluindo números de regras e grupos de coleta de regras, tamanho total da política, destinos de origem/destino. Certifique-se de redigir sua política e ficar abaixo dos limites documentados.</t>
+          <t>Habilite os provedores de parceiros de segurança no Firewall do Azure para aproveitar as melhores ofertas de segurança na nuvem, que fornecem proteção avançada para o tráfego da Internet. Esses provedores oferecem filtragem especializada e com reconhecimento do usuário e recursos abrangentes de detecção de ameaças que aprimoram sua postura geral de segurança.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>86b20eea-4ed0-4f79-adf4-4ff5f7edc227</t>
+          <t>f03b413a-c06c-4f22-98ad-6798b74f825e</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implante o Firewall do Azure em várias zonas de disponibilidade para obter um SLA (contrato de nível de serviço) mais alto.</t>
+          <t>Habilite a configuração de proxy DNS do Firewall do Azure. &lt;BR&gt;&lt;BR&gt; Configure também o Firewall do Azure para usar o DNS personalizado para encaminhar consultas DNS.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>O Firewall do Azure fornece SLAs diferentes quando é implantado em uma única zona de disponibilidade e quando é implantado em várias zonas. Para obter mais informações, consulte SLA para Firewall do Azure. Para obter informações sobre todos os SLAs do Azure, consulte Resumo de SLA para serviços do Azure.</t>
+          <t>Habilite esse recurso para apontar clientes nas redes virtuais para o Firewall do Azure como um servidor DNS. Esse recurso protege a infraestrutura DNS interna que não é acessada e exposta diretamente.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>7f303799-88af-49d0-ae85-73ce4bf33f76</t>
+          <t>98a53328-cf36-4d0e-b7dc-a15a8957ab3b</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Em ambientes de várias regiões, implante uma instância do Firewall do Azure por região.</t>
+          <t>Configure UDRs para forçar o tráfego por meio do Firewall do Azure em uma arquitetura hub-and-spoke tradicional para conectividade spoke-to-spoke, spoke-to-internet e spoke-to-hybrid. &lt;BR&gt;&lt;BR&gt; Na WAN Virtual, configure a intenção e as políticas de roteamento para redirecionar o tráfego privado ou o tráfego da Internet por meio da instância do Firewall do Azure integrada ao hub. &lt;BR&gt;&lt;BR&gt; Se você não puder aplicar uma UDR e precisar apenas de redirecionamento de tráfego da Web, use o Firewall do Azure como um proxy explícito no caminho de saída. Você pode definir uma configuração de proxy no aplicativo de envio, como um navegador da Web, ao configurar o Firewall do Azure como um proxy.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Para arquiteturas tradicionais de Hub &amp; Spokes, os detalhes de várias regiões são explicados neste artigo. Para hubs virtuais protegidos (WAN Virtual do Azure), a Intenção e as Políticas de Roteamento devem ser configuradas para proteger as comunicações entre hubs e branch a branch. Para cargas de trabalho projetadas para serem resistentes a falhas e tolerantes a falhas, lembre-se de considerar essas instâncias do Firewall do Azure e da Rede Virtual do Azure como recursos regionais.</t>
+          <t>Envie tráfego pelo firewall para inspecionar o tráfego e ajudar a identificar e bloquear o tráfego mal-intencionado. &lt;BR&gt;&lt;BR&gt; Use o Firewall do Azure como um proxy explícito para o tráfego de saída para que o tráfego da Web atinja o endereço IP privado do firewall e, portanto, saia diretamente do firewall sem usar uma UDR. Esse recurso também facilita o uso de vários firewalls sem modificar as rotas de rede existentes.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>69dcdc93-55e9-454e-9128-b9996b089e2c</t>
+          <t>5a33a8c3-32ad-4df5-b10e-ae88d9341652</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Monitore as métricas do Firewall do Azure e o estado do Resource Health.</t>
+          <t>Use a filtragem FQDN em regras de rede. Você deve habilitar a configuração de proxy DNS do Firewall do Azure para usar FQDNs em suas regras de rede.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Monitore de perto o indicador de métricas principais do estado de integridade do Firewall do Azure, como taxa de transferência, estado de integridade do firewall, utilização da porta SNAT e métricas de investigação de latência do AZFW. Além disso, o Firewall do Azure agora se integra ao Azure Resource Health. Com a verificação de Integridade do Recurso do Firewall do Azure, agora você pode exibir o status de integridade do Firewall do Azure e resolver problemas de serviço que podem afetar o recurso do Firewall do Azure.</t>
+          <t>Use FQDNs nas regras de rede do Firewall do Azure para que os administradores possam gerenciar nomes de domínio em vez de vários endereços IP, o que simplifica o gerenciamento. Essa resolução dinâmica garante que as regras de firewall sejam atualizadas automaticamente quando os IPs de domínio forem alterados.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>dbadd7db-ba2d-4b33-bf38-3251fe3fb6fb</t>
+          <t>468a142a-2b62-4379-90d1-46a7d351716f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Se necessário rotear todo o tráfego vinculado à Internet para um próximo salto designado em vez de ir diretamente para a Internet, configure o Firewall do Azure no modo de túnel forçado (não se aplica à WAN Virtual do Azure).</t>
+          <t>Use marcas de serviço do Firewall do Azure no lugar de endereços IP específicos para fornecer acesso seletivo a serviços específicos no Azure, Microsoft Dynamics 365 e Microsoft 365.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>O Firewall do Azure deve ter conectividade direta com a Internet. Se o AzureFirewallSubnet aprender uma rota padrão para sua rede local por meio do Protocolo de Gateway de Borda, você deverá configurar o Firewall do Azure no modo de túnel forçado. Usando o recurso de túnel forçado, você precisará de outro espaço de endereço /26 para a sub-rede de Gerenciamento do Firewall do Azure. Se essa for uma instância existente do Firewall do Azure que não pode ser reconfigurada no modo de túnel forçado, crie uma UDR com uma rota 0.0.0.0/0. Defina o valor NextHopType como Internet. Associe-o a AzureFirewallSubnet para manter a conectividade com a Internet.</t>
+          <t>Use marcas de serviço em regras de rede para que você possa definir controles de acesso com base em nomes de serviço em vez de endereços IP específicos, o que simplifica o gerenciamento de segurança. A Microsoft gerencia e atualiza essas marcas automaticamente quando os endereços IP são alterados. Esse método garante que suas regras de firewall permaneçam precisas e eficazes sem intervenção manual.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>55277728-2747-486c-be69-3428291856a4</t>
+          <t>d64d477e-8277-4f70-9727-8c1db0cd649c</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Defina o endereço IP público como Nenhum para implantar um plano de dados totalmente privado ao configurar o Firewall do Azure no modo de túnel forçado (não se aplica à WAN Virtual do Azure).</t>
+          <t>Use marcas FQDN em regras de aplicativo para fornecer acesso seletivo a serviços específicos da Microsoft. &lt;BR&gt;&lt;BR&gt; Você pode usar uma marca FQDN em regras de aplicativo para permitir o tráfego de rede de saída necessário por meio do firewall para serviços específicos do Azure, como Microsoft 365, Windows 365 e Microsoft Intune.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma nova instância do Firewall do Azure, se você habilitar o modo de túnel forçado, poderá definir o endereço IP público como Nenhum para implantar um plano de dados totalmente privado. No entanto, o plano de gerenciamento ainda requer um IP público apenas para fins de gerenciamento. O tráfego interno de redes virtuais e locais não usará esse IP público. Para obter mais informações sobre o túnel forçado, consulte Túnel forçado do Firewall do Azure.</t>
+          <t>Use marcas FQDN em regras de aplicativo do Firewall do Azure para representar um grupo de FQDNs associados a serviços conhecidos da Microsoft. Esse método simplifica o gerenciamento de regras de segurança de rede.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>7d9cd1f0-0f59-452e-be83-de6b49710ddc</t>
+          <t>f8f92e49-b7ed-40cc-ad7b-3431067dd488</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Crie regras para políticas de firewall com base em critérios de acesso com privilégios mínimos.</t>
+          <t>Habilite a inteligência contra ameaças no Firewall do Azure no modo de alerta e negação.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>As Políticas de Firewall do Azure podem ser organizadas em uma estrutura hierárquica para sobrepor uma política de base central. Permita políticas granulares para atender aos requisitos de regiões específicas. Cada política pode conter diferentes conjuntos de regras de DNAT, Rede e Aplicativo com prioridade, ação e ordem de processamento específicas. Crie suas regras com base no princípio Zero Trust de acesso com privilégios mínimos. Como as regras são processadas é explicado neste artigo.</t>
+          <t>Use inteligência de ameaças para fornecer proteção em tempo real contra ameaças emergentes, o que reduz o risco de ataques cibernéticos. Esse recurso usa o feed de inteligência contra ameaças da Microsoft para alertar e bloquear automaticamente o tráfego de endereços IP, domínios e URLs mal-intencionados conhecidos.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7600ea8-eb60-4eb1-9aee-c874efef69b7</t>
+          <t>ecce93c9-ffc9-498f-abdf-d29a618b8d1c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Habilite o IDPS no modo Alerta ou Alerta e negação.</t>
+          <t>Habilite o IDPS no modo Alerta ou Alerta e negação. Considere o impacto no desempenho desse recurso.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>O IDPS é um dos recursos de segurança mais poderosos do Firewall do Azure (Premium) e deve ser habilitado. Com base nos requisitos de segurança e do aplicativo, e considerando o impacto no desempenho (consulte a seção Custo abaixo), os modos Alerta ou Alerta e negação podem ser selecionados.</t>
+          <t>Habilitar a filtragem IDPS no Firewall do Azure fornece monitoramento e análise em tempo real do tráfego de rede para detectar e impedir atividades mal-intencionadas. Esse recurso usa detecção baseada em assinatura para identificar rapidamente ameaças conhecidas e bloqueá-las antes que causem danos.  Para obter mais informações, consulte Detectar abuso.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>d8fc2b4d-a183-4949-82ff-c6130a9d87dc</t>
+          <t>754d917c-b22f-4fe7-92b1-d0d88b5b1873</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Habilite a configuração de proxy do DNS (Firewall do Azure).</t>
+          <t>Use uma AC (autoridade de certificação) corporativa interna para gerar certificados ao usar a inspeção TLS com o Firewall do Azure Premium. Use certificados autoassinados apenas para fins de teste e PoC (prova de conceito).</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Habilitar esse recurso aponta clientes nas VNets para o Firewall do Azure como um servidor DNS. Ele protegerá a infraestrutura DNS interna que não será acessada e exposta diretamente. O Firewall do Azure também deve ser configurado para usar o DNS personalizado que será usado para encaminhar consultas DNS.</t>
+          <t>Habilite a inspeção TLS para que o Firewall do Azure Premium encerre e inspecione as conexões TLS para detectar, alertar e mitigar atividades mal-intencionadas em HTTPS.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>9fa0a48c-c3cb-4fc2-a02b-1182a047e076</t>
+          <t>9e220953-da77-44f0-9e85-ccc7743e2d2a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Configure UDR (rotas definidas pelo usuário) para forçar o tráfego por meio do Firewall do Azure.</t>
+          <t>Use o Gerenciador de Firewall para criar e associar um plano de Proteção contra DDoS do Azure à rede virtual do hub. Essa abordagem não se aplica à WAN Virtual.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Em uma arquitetura tradicional de Hub e Spokes, configure UDRs para forçar o tráfego por meio do Firewall do Azure para conectividade 'Spoke-to-Spoke', 'Spoke-to-Internet' e 'Spoke-to-Hybrid'. Na WAN Virtual do Azure, em vez disso, configure a Intenção de Roteamento e as Políticas para redirecionar o tráfego privado e/ou da Internet por meio da instância do Firewall do Azure integrada ao hub.</t>
+          <t>Configure um plano de Proteção contra DDoS do Azure para que você possa gerenciar centralmente a proteção contra DDoS junto com suas políticas de firewall. Essa abordagem simplifica a forma como você gerencia a segurança da rede e simplifica a forma como você implanta e monitora os processos.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3f23112-5986-4fd2-9d64-edfb0363c08c</t>
+          <t>fe3488cd-72a6-4672-b26b-64b1a0e9f625</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Se não for possível aplicar a UDR e apenas o redirecionamento de tráfego da Web for necessário, considere usar o Firewall do Azure como um Proxy Explícito</t>
+          <t>Pare as implantações do Firewall do Azure que não precisam ser executadas continuamente. Você pode ter ambientes de desenvolvimento ou teste que você usa apenas durante o horário comercial. Para obter mais informações, consulte Desalocar e alocar o Firewall do Azure.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Com o recurso de proxy explícito habilitado no caminho de saída, você pode definir uma configuração de proxy no aplicativo Web de envio (como um navegador da Web) com o Firewall do Azure configurado como o proxy. Como resultado, o tráfego da Web alcançará o endereço IP privado do firewall e, portanto, sairá diretamente do firewall sem usar uma UDR. Esse recurso também facilita o uso de vários firewalls sem modificar as rotas de rede existentes.</t>
+          <t>Desligue essas implantações fora do horário de pico ou quando ocioso para reduzir despesas desnecessárias, mas mantenha a segurança e o desempenho durante momentos críticos.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f62b7e3d-b86d-4f84-888d-ec7f97b34e96</t>
+          <t>463b7549-f012-4554-a6df-4ea62350cc52</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança de software como serviço (SaaS) de terceiros com suporte no Firewall Manager se quiser usar essas soluções para proteger conexões de saída.</t>
+          <t>Examine regularmente o tráfego que o Firewall do Azure processa e encontre otimizações de carga de trabalho de origem. O log de fluxos superiores, também conhecido como log de fluxos de gordura, mostra as principais conexões que contribuem para a maior taxa de transferência por meio do firewall.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar suas ofertas conhecidas e de terceiros SECaaS para proteger o acesso à Internet para seus usuários. Esse cenário requer a WAN Virtual do Azure com um Gateway de VPN S2S no Hub, pois ele usa um túnel IPSec para se conectar à infraestrutura do provedor. Os provedores de SECaaS podem cobrar taxas de licença adicionais e limitar a taxa de transferência em conexões IPSec. Soluções alternativas, como o ZScaler Cloud Connector, existem e podem ser mais adequadas.</t>
+          <t>Otimize as cargas de trabalho que geram mais tráfego por meio do firewall para reduzir o volume de tráfego, o que diminui a carga no firewall e minimiza os custos de processamento de dados e largura de banda.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>1f1a4239-f908-4fb5-aff5-7d716d9227a1</t>
+          <t>ccd04d1a-611b-4c77-aef7-96d1ac1470d1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use a filtragem de FQDN (Nome de Domínio Totalmente Qualificado) em regras de rede.</t>
+          <t>Identifique e exclua implantações de Firewall do Azure não utilizadas. Analise métricas de monitoramento e UDRs associadas a sub-redes que apontam para o IP privado do firewall. Considere também outras validações e documentação interna sobre seu ambiente e implantações. Por exemplo, analise qualquer NAT clássico, rede e regras de aplicativo para o Firewall do Azure. E considere suas configurações. Por exemplo, você pode definir a configuração de proxy DNS como Desabilitado.  Para obter mais informações, consulte Monitorar o Firewall do Azure.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar o FQDN com base na resolução DNS no Firewall do Azure e nas políticas de firewall. Esse recurso permite filtrar o tráfego de saída com qualquer protocolo TCP/UDP (incluindo NTP, SSH, RDP e muito mais). Você deve habilitar a configuração de Proxy DNS do Firewall do Azure para usar FQDNs em suas regras de rede. Para saber como funciona, confira Filtragem de FQDN do Firewall do Azure em regras de rede.</t>
+          <t>Use essa abordagem para detectar implantações econômicas ao longo do tempo e eliminar recursos não utilizados, o que evita custos desnecessários.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>cac3a2cc-688b-42c3-bfb5-e2b55270b8a0</t>
+          <t>9ddcb977-4f4d-4c98-a7bc-daad82bf79fb</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use marcas de serviço em regras de rede para habilitar o acesso seletivo a serviços específicos da Microsoft.</t>
+          <t>Revise cuidadosamente as políticas, associações e herança do Firewall Manager para otimizar os custos. As políticas são cobradas com base em associações de firewall. Uma política com zero ou uma associação de firewall é gratuita. Uma política com várias associações de firewall é cobrada a uma taxa fixa. Para obter mais informações, consulte Preços do Firewall Manager.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Uma marca de serviço representa um grupo de prefixos de endereço IP para ajudar a minimizar a complexidade da criação de regras de segurança. Usando marcas de serviço em regras de rede, é possível habilitar o acesso de saída a serviços específicos no Azure, Dynamics e Office 365 sem abrir grandes intervalos de endereços IP. O Azure manterá automaticamente o mapeamento entre essas marcas e os endereços IP subjacentes usados por cada serviço. A lista de marcas de serviço disponíveis para o Firewall do Azure está listada aqui: Marcas de serviço do Firewall Az.</t>
+          <t>Use adequadamente o Firewall Manager e suas políticas para reduzir os custos operacionais, aumentar a eficiência e reduzir a sobrecarga de gerenciamento.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>8e718b0b-3ae5-4a85-9e5e-7f12ac48ace8</t>
+          <t>a42cec48-b5d7-467a-8296-4864c6e9b413</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Use marcas FQDN em regras de aplicativo para habilitar o acesso seletivo a serviços específicos da Microsoft.</t>
+          <t>Revise todos os endereços IP públicos em sua configuração e desassocie e exclua aqueles que você não usa. Avalie o uso da porta SNAT (conversão de endereços de rede de origem) antes de remover qualquer endereço IP.  Para obter mais informações, consulte Monitorar logs e métricas do Firewall do Azure e uso da porta SNAT.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Uma marca FQDN representa um grupo de FQDNs (nomes de domínio totalmente qualificados) associados a serviços conhecidos da Microsoft. Você pode usar uma marca FQDN em regras de aplicativo para permitir o tráfego de rede de saída necessário por meio do firewall para alguns serviços específicos do Azure, Office 365, Windows 365 e Intune.</t>
+          <t>Exclua endereços IP não utilizados para reduzir custos.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>66db2147-74f7-4b4a-af65-a946369ae551</t>
+          <t>407db414-2814-4803-9b80-be5ff2a97950</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall do Azure para criar e associar um plano de proteção contra DDoS à sua rede virtual do hub (não se aplica à WAN Virtual do Azure).</t>
+          <t>Habilite os logs de diagnóstico para o Firewall do Azure. Use logs de firewall ou pastas de trabalho para monitorar o Firewall do Azure. Você também pode usar logs de atividades para auditar operações em recursos do Firewall do Azure.  Use o formato de logs de firewall estruturado. Use apenas o formato de logs de diagnóstico anterior se você tiver uma ferramenta existente que o exija. Não habilite os dois formatos de log ao mesmo tempo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Um plano de proteção contra DDoS fornece recursos aprimorados de mitigação para defender seu firewall contra ataques DDoS. O Gerenciador de Firewall do Azure é uma ferramenta integrada para criar sua infraestrutura de firewall e planos de proteção contra DDoS. Para obter mais informações, consulte Configurar um Plano de Proteção contra DDoS do Azure usando o Gerenciador de Firewall do Azure.</t>
+          <t>Habilite os logs de diagnóstico para otimizar suas ferramentas e estratégias de monitoramento para o Firewall do Azure.  Use logs de firewall estruturados para estruturar os dados de log para que seja fácil de pesquisar, filtrar e analisar. As ferramentas de monitoramento mais recentes são baseadas nesse tipo de log, portanto, geralmente é um pré-requisito.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>0c87e550-0780-401e-9208-5464b378a8e7</t>
+          <t>fb2c3215-9576-49d1-a936-e302ef9049c2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use uma PKI corporativa para gerar certificados para inspeção TLS.</t>
+          <t>Use a pasta de trabalho interna do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Com o Firewall do Azure Premium, se o recurso de Inspeção TLS for usado, é recomendável aproveitar uma AC (Autoridade de Certificação) Corporativa interna para o ambiente de produção. Os certificados autoassinados devem ser usados apenas para fins de teste/PoC.</t>
+          <t>Use a pasta de trabalho do Firewall do Azure para extrair insights valiosos de eventos do Firewall do Azure, analisar seu aplicativo e regras de rede e examinar estatísticas sobre atividades de firewall em URLs, portas e endereços.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>821132d4-1ba9-4709-9eb3-5906871b1721</t>
+          <t>913ed2e5-c63c-4325-8578-965c5c3c4b79</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Examine o guia de configuração de Confiança Zero para o Firewall do Azure e o Gateway de Aplicativo</t>
+          <t>Monitore os logs e as métricas do Firewall do Azure e crie alertas para a capacidade do Firewall do Azure. Crie alertas para monitorar a taxa de transferência, o estado de integridade do firewall, a utilização da porta SNAT e as métricas de investigação de latência do AZFW.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Se seus requisitos de segurança exigirem a implementação de uma abordagem Zero-Trust para aplicativos Web (inspeção e criptografia), é recomendável seguir este guia. Neste documento, será explicado como integrar o Firewall do Azure e o Gateway de Aplicativo, em cenários tradicionais de Hub &amp; Spoke e WAN Virtual.</t>
+          <t>Configure alertas para eventos importantes para notificar os operadores antes que surjam possíveis problemas, ajude a evitar interrupções e inicie ajustes rápidos de capacidade.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>0ecf166e-e415-45bf-bece-87a32e76b096</t>
+          <t>79268d8a-5829-4fb3-a1c6-d7ee9c980cd4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implante o SKU do Firewall do Azure adequado.</t>
+          <t>Revise regularmente o painel de análise de políticas para identificar possíveis problemas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>O Firewall do Azure pode ser implantado em três SKUs diferentes: Básico, Standard e Premium. O Firewall do Azure Premium é recomendado para proteger aplicativos altamente confidenciais (como processamento de pagamentos). O Firewall do Azure Standard é recomendado para clientes que procuram firewall de Camada 3 a Camada 7 e precisa de dimensionamento automático para lidar com períodos de pico de tráfego de até 30 Gbps. O Firewall do Azure Basic é recomendado para clientes SMB com necessidades de taxa de transferência de 250 Mbps. Se necessário, é possível fazer downgrade ou upgrade entre Standard e Premium, conforme documentado aqui.   Para obter mais informações, consulte Escolher o SKU do Firewall do Azure certo para atender às suas necessidades.</t>
+          <t>Use a análise de política para analisar o impacto de suas políticas de Firewall do Azure. Identifique possíveis problemas em suas políticas, como atender aos limites de políticas, regras inadequadas e uso inadequado de grupos de IP. Obtenha recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>fbcc2c4d-8026-46a9-8fe7-bdb04dbd1f20</t>
+          <t>63b266a4-285f-4fd4-a0fb-b6bb4c1ce75b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Interrompa as implantações do Firewall do Azure que não precisam ser executadas 24 horas por dia, 7 dias por semana.</t>
+          <t>Entenda as consultas KQL para que você possa usar os logs do Firewall do Azure para analisar e solucionar problemas rapidamente. O Firewall do Azure fornece consultas de exemplo.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Você pode ter ambientes de desenvolvimento ou teste que são usados apenas durante o horário comercial. Para obter mais informações, consulte Desalocar e alocar o Firewall do Azure.</t>
+          <t>Use consultas KQL para identificar rapidamente eventos dentro do firewall e verifique qual regra é acionada ou qual regra permite ou bloqueia uma solicitação.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>4bf5b742-3a86-40a3-abce-a7991e9a0e78</t>
+          <t>37cc2cc2-5700-4e4b-bb0b-86e6acb11092</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Compartilhe a mesma instância do Firewall do Azure em várias cargas de trabalho e Redes Virtuais do Azure.</t>
+          <t>Use o painel de análise de política para identificar maneiras de otimizar as políticas do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar uma instância central do Firewall do Azure na rede virtual do hub ou no hub seguro da WAN Virtual e compartilhar o mesmo firewall em várias redes virtuais spoke conectadas ao mesmo hub da mesma região. Verifique se não há tráfego inesperado entre regiões como parte da topologia hub-spoke.</t>
+          <t>Use a análise de políticas para identificar possíveis problemas em suas políticas, como atender aos limites de políticas, regras inadequadas e uso inadequado de grupos de IP. Obtenha recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>4468b60f-0f1d-4af5-98cd-b4f9fc3bd70f</t>
+          <t>e9cf81c7-6938-44e1-83fe-0c16af8214fd</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Examine regularmente o tráfego processado pelo Firewall do Azure e procure otimizações de carga de trabalho de origem</t>
+          <t>Coloque as regras usadas com frequência no início de um grupo para otimizar a latência das políticas do Firewall do Azure que têm grandes conjuntos de regras.  Para obter mais informações, consulte Usar políticas de Firewall do Azure para processar regras.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>O log Top Flows (conhecido no setor como Fat Flows) mostra as principais conexões que estão contribuindo para a maior taxa de transferência por meio do firewall. É recomendável examinar regularmente o tráfego processado pelo Firewall do Azure e pesquisar possíveis otimizações para reduzir a quantidade de tráfego que atravessa o firewall.</t>
+          <t>Coloque as regras usadas com frequência no topo de um conjunto de regras para otimizar a latência de processamento. O Firewall do Azure processa regras com base no tipo de regra, herança, prioridade do grupo de coleta de regras e prioridade de coleção de regras. O Firewall do Azure processa primeiro os grupos de coleta de regras de alta prioridade. Dentro de um grupo de coleção de regras, o Firewall do Azure processa as coleções de regras que têm a prioridade mais alta primeiro.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3ec205f3-5201-4a2e-b82b-1c77c9ee139c</t>
+          <t>4413e944-e222-419c-bc01-54f518dace78</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Examine as instâncias subutilizadas do Firewall do Azure. Identifique e exclua implantações de Firewall do Azure não utilizadas.</t>
+          <t>Use grupos de IP para resumir intervalos de endereços IP e evitar exceder o limite de regras de rede de origem ou destino exclusivas. O Firewall do Azure trata o grupo de IP como um único endereço quando você cria regras de rede.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Para identificar implantações de Firewall do Azure não utilizadas, comece analisando as métricas de monitoramento e UDRs associadas a sub-redes que apontam para o IP privado do firewall. Combine essas informações com outras validações, como se sua instância do Firewall do Azure tiver regras (clássicas) para NAT, Rede e Aplicativo, ou mesmo se a configuração de Proxy DNS estiver definida como Desabilitada e com documentação interna sobre seu ambiente e implantações. Você pode detectar implantações econômicas ao longo do tempo.  Para obter mais informações sobre como monitorar logs e métricas, consulte Monitorar logs e métricas do Firewall do Azure e utilização da porta SNAT.</t>
+          <t>Essa abordagem aumenta efetivamente o número de endereços IP que você pode cobrir sem exceder o limite. Para cada regra, o Azure multiplica as portas por endereços IP. Portanto, se uma regra tiver quatro intervalos de endereços IP e cinco portas, você consumirá 20 regras de rede.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>514f4dbe-5294-44e1-95c5-923a199ff687</t>
+          <t>6acef044-ef2f-47b0-8463-5de890902930</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall do Azure e suas políticas para reduzir os custos operacionais, aumentar a eficiência e reduzir a sobrecarga de gerenciamento.</t>
+          <t>Use as categorias da Web do Firewall do Azure para permitir ou negar o acesso de saída em massa, em vez de criar e manter explicitamente uma longa lista de sites públicos da Internet.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Revise cuidadosamente as políticas, associações e herança do Firewall Manager. As políticas são cobradas com base em associações de firewall. Uma política com zero ou uma associação de firewall é gratuita. Uma política com várias associações de firewall é cobrada a uma taxa fixa. Para obter mais informações, consulte Preços – Gerenciador de Firewall do Azure.</t>
+          <t>Esse recurso categoriza dinamicamente o conteúdo da Web e permite a criação de regras compactas de aplicativos, o que reduz a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>90f29560-d536-46bf-a719-f0f95f89105e</t>
+          <t>0a8a6e9c-57e9-40bd-8345-8b5abbcfa504</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Exclua endereços IP públicos não utilizados.</t>
+          <t>Avalie o impacto no desempenho do IDPS no modo de alerta e negação. Para obter mais informações, consulte Desempenho do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Valide se todos os endereços IP públicos associados estão em uso. Se eles não estiverem em uso, desassocie-os e exclua-os. Avalie a utilização da porta SNAT antes de remover qualquer endereço IP. Você usará apenas o número de IPs públicos de que seu firewall precisa. Para obter mais informações, consulte Monitorar logs e métricas do Firewall do Azure e utilização da porta SNAT.</t>
+          <t>Habilite o IDPS no modo de alerta e negação para detectar e impedir atividades maliciosas na rede. Esse recurso pode introduzir uma penalidade de desempenho. Entenda o efeito em sua carga de trabalho para que você possa planejar adequadamente.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e81c61b3-0085-4029-82e3-d55513288f87</t>
+          <t>a281c1d2-e2da-458f-ad57-d67d19b8377e</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Revise os requisitos de registro.</t>
+          <t>Configure implantações do Firewall do Azure com um mínimo de cinco endereços IP públicos para implantações suscetíveis ao esgotamento da porta SNAT.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>O Firewall do Azure tem a capacidade de registrar metadados de forma abrangente de todo o tráfego que vê, para Workspaces do Log Analytics, Armazenamento ou soluções de terceiros por meio de Hubs de Eventos. No entanto, todas as soluções de registro incorrem em custos de processamento e armazenamento de dados. Em volumes muito grandes, esses custos podem ser significativos, uma abordagem econômica e uma alternativa ao Log Analytics devem ser consideradas e o custo estimado. Considere se é necessário registrar metadados de tráfego para todas as categorias de log e modificá-los em Configurações de Diagnóstico, se necessário.</t>
+          <t>O Firewall do Azure dá suporte a 2.496 portas para cada endereço IP público que cada instância de Conjuntos de Dimensionamento de Máquinas Virtuais do Azure de back-end usa. Essa configuração aumenta as portas SNAT disponíveis em cinco vezes.  Por padrão, o Firewall do Azure implanta duas instâncias de Conjuntos de Dimensionamento de Máquinas Virtuais que dão suporte a 4.992 portas para cada IP de destino de fluxo, porta de destino e protocolo TCP ou UDP. O firewall pode ser dimensionado até um máximo de 20 instâncias.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a27d979a-c88c-4ce0-9310-9a69eba3460d</t>
+          <t>ffa8eeee-ff51-44ca-a416-275bcf54be52</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2074,32 +2074,15 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="n"/>
       <c r="B38" s="21" t="n"/>
-      <c r="C38" s="21" t="inlineStr">
-        <is>
-          <t>Não use o Firewall do Azure para controle de tráfego intra-VNet.</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>O Firewall do Azure deve ser usado para controlar o tráfego entre VNets, entre VNets e redes locais, o tráfego de saída para a Internet e o tráfego não HTTP/s de entrada. Para o controle de tráfego intra-VNet, é recomendável usar Grupos de Segurança de Rede.</t>
-        </is>
-      </c>
+      <c r="C38" s="21" t="n"/>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="n"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
-      <c r="L38" s="25" t="inlineStr">
-        <is>
-          <t>bce7644e-fefe-4d43-94ea-37af4d8743f9</t>
-        </is>
-      </c>
+      <c r="L38" s="25" t="n"/>
       <c r="M38" s="25" t="n"/>
       <c r="N38" s="25" t="n"/>
       <c r="O38" s="25" t="n"/>
@@ -2108,32 +2091,15 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="n"/>
       <c r="B39" s="21" t="n"/>
-      <c r="C39" s="21" t="inlineStr">
-        <is>
-          <t>Mantenha backups regulares de artefatos do Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>Se a abordagem de IaC (infraestrutura como código) for usada para manter o Firewall do Azure e todas as dependências, o backup e o controle de versão das Políticas de Firewall do Azure já deverão estar em vigor. Caso contrário, um mecanismo complementar baseado no Aplicativo Lógico externo poderá ser implantado para automatizar e fornecer uma solução eficaz.</t>
-        </is>
-      </c>
+      <c r="C39" s="21" t="n"/>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="n"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
-      <c r="L39" s="25" t="inlineStr">
-        <is>
-          <t>8b0afffb-17aa-4839-b93f-c01d990ad7c6</t>
-        </is>
-      </c>
+      <c r="L39" s="25" t="n"/>
       <c r="M39" s="25" t="n"/>
       <c r="N39" s="25" t="n"/>
       <c r="O39" s="25" t="n"/>
@@ -2142,32 +2108,15 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="n"/>
       <c r="B40" s="21" t="n"/>
-      <c r="C40" s="21" t="inlineStr">
-        <is>
-          <t>Habilite os Logs de Diagnóstico para o Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>Os Logs de Diagnóstico são um componente chave para muitas ferramentas e estratégias de monitoramento do Firewall do Azure e devem ser habilitados. Você pode monitorar o Firewall do Azure usando logs de firewall ou pastas de trabalho. Você também pode usar logs de atividades para auditar operações em recursos do Firewall do Azure.</t>
-        </is>
-      </c>
+      <c r="C40" s="21" t="n"/>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="n"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
-      <c r="L40" s="25" t="inlineStr">
-        <is>
-          <t>6d52b11a-0034-4824-84c4-7383182dc4df</t>
-        </is>
-      </c>
+      <c r="L40" s="25" t="n"/>
       <c r="M40" s="25" t="n"/>
       <c r="N40" s="25" t="n"/>
       <c r="O40" s="25" t="n"/>
@@ -2176,32 +2125,15 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="n"/>
       <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="inlineStr">
-        <is>
-          <t>Use o formato Structured Firewall Logs.</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>Os logs de firewall estruturados são um tipo de dados de log organizados em um novo formato específico. Eles usam um esquema predefinido para estruturar os dados de log de uma forma que facilite a pesquisa, a filtragem e a análise. As ferramentas de monitoramento mais recentes são baseadas nesse tipo de log, portanto, geralmente é um pré-requisito. Use o formato anterior de Logs de Diagnóstico somente se houver uma ferramenta existente com um pré-requisito para isso. Não habilite os dois formatos de log ao mesmo tempo.</t>
-        </is>
-      </c>
+      <c r="C41" s="21" t="n"/>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="n"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="inlineStr">
-        <is>
-          <t>99a0621d-2643-4e46-afb0-dd3e5111dedd</t>
-        </is>
-      </c>
+      <c r="L41" s="25" t="n"/>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
@@ -2210,32 +2142,15 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="n"/>
       <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="inlineStr">
-        <is>
-          <t>Use a pasta de trabalho interna de monitoramento do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>A experiência do portal do Firewall do Azure agora inclui uma nova pasta de trabalho na interface do usuário da seção Monitoramento, uma instalação separada não é mais necessária. Com a pasta de trabalho do Firewall do Azure, você pode extrair insights valiosos de eventos do Firewall do Azure, aprofundar suas regras de aplicativo e rede e examinar estatísticas sobre atividades de firewall em URLs, portas e endereços.</t>
-        </is>
-      </c>
+      <c r="C42" s="21" t="n"/>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="n"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="inlineStr">
-        <is>
-          <t>8c18d9ea-2440-4125-a0cb-c1cf35c0be70</t>
-        </is>
-      </c>
+      <c r="L42" s="25" t="n"/>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -2244,32 +2159,15 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="n"/>
       <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="inlineStr">
-        <is>
-          <t>Monitore as principais métricas e crie alertas para indicadores da utilização da capacidade do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>Os alertas devem ser criados para monitorar pelo menos a taxa de transferência, o estado de integridade do firewall, a utilização da porta SNAT e as métricas de investigação de latência do AZFW. Para obter informações sobre como monitorar logs e métricas, consulte Monitorar logs e métricas do Firewall do Azure.</t>
-        </is>
-      </c>
+      <c r="C43" s="21" t="n"/>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="n"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="inlineStr">
-        <is>
-          <t>05877204-1759-4b71-8938-4766b1b24fa7</t>
-        </is>
-      </c>
+      <c r="L43" s="25" t="n"/>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -2278,32 +2176,15 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="n"/>
       <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="inlineStr">
-        <is>
-          <t>Configure a integração do Firewall do Azure com o Microsoft Defender para Nuvem e o Microsoft Sentinel.</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>Se essas ferramentas estiverem disponíveis no ambiente, é recomendável aproveitar a integração com as soluções Microsoft Defender para Nuvem e Microsoft Sentinel. Com a integração do Microsoft Defender para Nuvem, você pode visualizar o status total da infraestrutura de rede e da segurança de rede em um só lugar, incluindo a Segurança de Rede do Azure em todas as VNets e Hubs Virtuais espalhados por diferentes regiões no Azure. A integração com o Microsoft Sentinel fornece recursos de detecção e prevenção de ameaças.</t>
-        </is>
-      </c>
+      <c r="C44" s="21" t="n"/>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="n"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="inlineStr">
-        <is>
-          <t>0dd715ab-c76e-49b9-9616-ccb36ddb293e</t>
-        </is>
-      </c>
+      <c r="L44" s="25" t="n"/>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
@@ -2312,31 +2193,14 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="n"/>
       <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="inlineStr">
-        <is>
-          <t>Revise regularmente o painel de análise de políticas para identificar possíveis problemas.</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>A Análise de Política é um novo recurso que fornece insights sobre o impacto de suas políticas de Firewall do Azure. Ele ajuda você a identificar possíveis problemas (atingir limites de política, regras de baixa utilização, regras redundantes, regras muito genéricas, recomendação de uso de grupos de IP) em suas políticas e fornece recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
-        </is>
-      </c>
+      <c r="C45" s="21" t="n"/>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="n"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="inlineStr">
-        <is>
-          <t>9e1b460f-0d41-40a1-9da7-89cda32f7190</t>
-        </is>
-      </c>
+      <c r="L45" s="25" t="n"/>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
@@ -2345,32 +2209,15 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="n"/>
       <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="inlineStr">
-        <is>
-          <t>Familiarize-se com as consultas KQL (Kusto Query Language) para permitir uma análise rápida e a solução de problemas usando os logs do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>Consultas de exemplo são fornecidas para o Firewall do Azure. Isso permitirá que você identifique rapidamente o que está acontecendo dentro do seu firewall e verifique qual regra foi acionada ou qual regra está permitindo / bloqueando uma solicitação.</t>
-        </is>
-      </c>
+      <c r="C46" s="21" t="n"/>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="n"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="inlineStr">
-        <is>
-          <t>8f1b00a0-2ba3-4dff-b808-072bbd316a88</t>
-        </is>
-      </c>
+      <c r="L46" s="25" t="n"/>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
@@ -2379,32 +2226,15 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="n"/>
       <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="inlineStr">
-        <is>
-          <t>Use o painel Análise de Política para identificar possíveis otimizações para Políticas de Firewall.</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>A Análise de Política é um novo recurso que fornece insights sobre o impacto de suas políticas de Firewall do Azure. Ele ajuda você a identificar possíveis problemas (atingir limites de política, regras de baixa utilização, regras redundantes, regras muito genéricas, recomendação de uso de grupos de IP) em suas políticas e fornece recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
-        </is>
-      </c>
+      <c r="C47" s="21" t="n"/>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="n"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="inlineStr">
-        <is>
-          <t>f3a64299-022d-492e-a095-72965cbb79b8</t>
-        </is>
-      </c>
+      <c r="L47" s="25" t="n"/>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
@@ -2413,31 +2243,14 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="n"/>
       <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Considere as categorias da Web para permitir ou negar o acesso de saída em massa.</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>Em vez de criar e manter explicitamente uma longa lista de sites públicos da Internet, considere o uso de Categorias da Web do Firewall do Azure. Esse recurso categorizará dinamicamente o conteúdo da Web e permitirá a criação de Regras de Aplicativo compactas.</t>
-        </is>
-      </c>
+      <c r="C48" s="21" t="n"/>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="n"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>53e42e9b-6d25-4116-87ca-6c97252e1cd6</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
@@ -2446,31 +2259,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="n"/>
       <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t>Avalie o impacto no desempenho do IDPS no modo de alerta e negação.</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>Se o Firewall do Azure for necessário para operar no modo IDPS Alertar e negar, considere cuidadosamente o impacto no desempenho, conforme documentado no desempenho do firewall.</t>
-        </is>
-      </c>
+      <c r="C49" s="21" t="n"/>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="n"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>4afedb20-a63a-4c17-907d-d8afc5cd1b43</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
@@ -2479,32 +2275,15 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="n"/>
       <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>Avalie o possível problema de esgotamento da porta SNAT.</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>Atualmente, o Firewall do Azure dá suporte a 2496 portas por endereço IP público por instância do Conjunto de Dimensionamento de Máquinas Virtuais de back-end. Por padrão, há duas instâncias do Conjunto de Dimensionamento de Máquinas Virtuais. Portanto, existem 4992 portas por IP de destino de fluxo, porta de destino e protocolo (TCP ou UDP). O firewall pode ser dimensionado até um máximo de 20 instâncias. Você pode contornar os limites configurando implantações do Firewall do Azure com um mínimo de cinco endereços IP públicos para implantações suscetíveis ao esgotamento de SNAT.</t>
-        </is>
-      </c>
+      <c r="C50" s="21" t="n"/>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="n"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>cdb16c9c-fe4e-41d6-bc0c-8519a606d37b</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
@@ -2513,32 +2292,15 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="n"/>
       <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>Aqueça corretamente o Firewall do Azure antes de qualquer teste de desempenho.</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>Crie tráfego inicial que não faça parte de seus testes de carga 20 minutos antes do teste. Use as configurações de diagnóstico para capturar eventos de expansão e redução. Você pode usar o serviço de Teste de Carga do Azure para gerar o tráfego inicial. Permite que a instância do Firewall do Azure escale verticalmente suas instâncias ao máximo.</t>
-        </is>
-      </c>
+      <c r="C51" s="21" t="n"/>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="n"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>1859fa28-775d-433f-b189-6b250e51b441</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -2547,32 +2309,15 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="n"/>
       <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>Configure uma sub-rede do Firewall do Azure (AzureFirewallSubnet) com um espaço de endereço /26.</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>O Firewall do Azure é uma implantação dedicada em sua rede virtual. Em sua rede virtual, uma sub-rede dedicada é necessária para a instância do Firewall do Azure. O Firewall do Azure provisiona mais capacidade à medida que é dimensionado. Um espaço de endereço /26 para suas sub-redes garante que o firewall tenha endereços IP suficientes disponíveis para acomodar o dimensionamento. O Firewall do Azure não precisa de uma sub-rede maior que /26. O nome da sub-rede do Firewall do Azure deve ser AzureFirewallSubnet.</t>
-        </is>
-      </c>
+      <c r="C52" s="21" t="n"/>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="n"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>272b1122-494d-4baa-a328-928a89ebb0ad</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
@@ -2581,31 +2326,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="n"/>
       <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>Não habilite o registro avançado se não for necessário</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>O Firewall do Azure fornece alguns recursos avançados de log que podem ser caros para manter sempre ativos. Em vez disso, eles devem ser usados apenas para fins de solução de problemas e limitados em duração e, em seguida, desativados quando não forem mais necessários. Por exemplo, os principais fluxos e os logs de rastreamento de fluxo são caros podem causar uso excessivo de CPU e armazenamento na infraestrutura do Firewall do Azure.</t>
-        </is>
-      </c>
+      <c r="C53" s="21" t="n"/>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="n"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>2b20c2ea-e6fd-4570-b86f-b20bfb695c6f</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -6589,7 +6317,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F38" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
